--- a/db/Dia_operativo_curso.xlsx
+++ b/db/Dia_operativo_curso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Posgrado\Proyecto Titulacion\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D88CE1-5325-4B9A-B32F-81A0193AD1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499A9CDC-C2DD-4CE1-9A68-CDE557FDB327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{43BD1C35-1044-4333-8111-FC055DAB3252}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43BD1C35-1044-4333-8111-FC055DAB3252}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="29">
   <si>
     <t>curso_id</t>
   </si>
   <si>
-    <t>dia_semana</t>
-  </si>
-  <si>
-    <t>es_operativo</t>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>martes</t>
+  </si>
+  <si>
+    <t>miercoles</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>1°Inf (A)</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>1°Inf (B)</t>
+  </si>
+  <si>
+    <t>2°Inf (A)</t>
+  </si>
+  <si>
+    <t>2°Inf (B)</t>
+  </si>
+  <si>
+    <t>3°Inf (A)</t>
+  </si>
+  <si>
+    <t>3°Inf (B)</t>
+  </si>
+  <si>
+    <t>1°Ini (A)</t>
+  </si>
+  <si>
+    <t>1°Ini (B)</t>
+  </si>
+  <si>
+    <t>2°Ini (A)</t>
+  </si>
+  <si>
+    <t>2°Ini (B)</t>
+  </si>
+  <si>
+    <t>3°Ini</t>
+  </si>
+  <si>
+    <t>1°Bas</t>
+  </si>
+  <si>
+    <t>2°Bas</t>
+  </si>
+  <si>
+    <t>3°Bas</t>
+  </si>
+  <si>
+    <t>1°Inv (A)</t>
+  </si>
+  <si>
+    <t>1°Inv (B)</t>
+  </si>
+  <si>
+    <t>2°Inv</t>
+  </si>
+  <si>
+    <t>3°Inv</t>
+  </si>
+  <si>
+    <t>1°Int</t>
+  </si>
+  <si>
+    <t>2°Int</t>
+  </si>
+  <si>
+    <t>3°Int</t>
   </si>
 </sst>
 </file>
@@ -98,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,19 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227DFF5F-21B1-4BD3-92F2-CAA5E8FFE88C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,6 +493,435 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
